--- a/driver.xlsx
+++ b/driver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\路径计算\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4CBC31-A4A2-491A-8514-D5CD180F466C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AF3083-C435-46BD-A954-7A2915E94F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="696" windowWidth="21420" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="21420" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,7 +35,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>work_time</t>
+    <t>total_distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_day</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -373,7 +377,7 @@
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,206 +385,284 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>0</v>
       </c>
     </row>
